--- a/lake height.xlsx
+++ b/lake height.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Lioumbas\Desktop\Software_Gadoura\LakeProcessingApp\to web app Polyphytos\to github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilioumbas\Documents\GitHub\Koroneia_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A607057C-E850-4FAA-9269-8BBC0614F135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FF7990-A6C1-496A-9847-6EF6786E755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33675" yWindow="3675" windowWidth="33360" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="1365" windowWidth="26505" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,8 +365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,7 +380,7 @@
         <v>41408</v>
       </c>
       <c r="B2" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -392,7 +388,7 @@
         <v>41433</v>
       </c>
       <c r="B3" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -400,7 +396,7 @@
         <v>41481</v>
       </c>
       <c r="B4" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -408,7 +404,7 @@
         <v>41504</v>
       </c>
       <c r="B5" s="2">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -416,7 +412,7 @@
         <v>41536</v>
       </c>
       <c r="B6" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -424,7 +420,7 @@
         <v>41545</v>
       </c>
       <c r="B7" s="2">
-        <v>281</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -432,7 +428,7 @@
         <v>41552</v>
       </c>
       <c r="B8" s="2">
-        <v>281</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,7 +436,7 @@
         <v>41616</v>
       </c>
       <c r="B9" s="2">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -448,7 +444,7 @@
         <v>41696</v>
       </c>
       <c r="B10" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +452,7 @@
         <v>41712</v>
       </c>
       <c r="B11" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,7 +460,7 @@
         <v>41737</v>
       </c>
       <c r="B12" s="2">
-        <v>285</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -472,7 +468,7 @@
         <v>41769</v>
       </c>
       <c r="B13" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +476,7 @@
         <v>41824</v>
       </c>
       <c r="B14" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,7 +484,7 @@
         <v>41840</v>
       </c>
       <c r="B15" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -496,7 +492,7 @@
         <v>41849</v>
       </c>
       <c r="B16" s="2">
-        <v>283.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -504,7 +500,7 @@
         <v>41865</v>
       </c>
       <c r="B17" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +508,7 @@
         <v>41904</v>
       </c>
       <c r="B18" s="2">
-        <v>281</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,7 +516,7 @@
         <v>41945</v>
       </c>
       <c r="B19" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -528,7 +524,7 @@
         <v>42000</v>
       </c>
       <c r="B20" s="2">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,7 +532,7 @@
         <v>42048</v>
       </c>
       <c r="B21" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +540,7 @@
         <v>42096</v>
       </c>
       <c r="B22" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +548,7 @@
         <v>42112</v>
       </c>
       <c r="B23" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +556,7 @@
         <v>42137</v>
       </c>
       <c r="B24" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +564,7 @@
         <v>42169</v>
       </c>
       <c r="B25" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +572,7 @@
         <v>42208</v>
       </c>
       <c r="B26" s="2">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -584,7 +580,7 @@
         <v>42249</v>
       </c>
       <c r="B27" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +588,7 @@
         <v>42281</v>
       </c>
       <c r="B28" s="2">
-        <v>281.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -600,7 +596,7 @@
         <v>42320</v>
       </c>
       <c r="B29" s="2">
-        <v>280.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,7 +604,7 @@
         <v>42393</v>
       </c>
       <c r="B30" s="2">
-        <v>282.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -616,7 +612,7 @@
         <v>42425</v>
       </c>
       <c r="B31" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +620,7 @@
         <v>42464</v>
       </c>
       <c r="B32" s="2">
-        <v>285</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,7 +628,7 @@
         <v>42480</v>
       </c>
       <c r="B33" s="2">
-        <v>286.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -640,7 +636,7 @@
         <v>42505</v>
       </c>
       <c r="B34" s="2">
-        <v>288</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -648,7 +644,7 @@
         <v>42537</v>
       </c>
       <c r="B35" s="2">
-        <v>288</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +652,7 @@
         <v>42553</v>
       </c>
       <c r="B36" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +660,7 @@
         <v>42585</v>
       </c>
       <c r="B37" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -672,7 +668,7 @@
         <v>42617</v>
       </c>
       <c r="B38" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -680,7 +676,7 @@
         <v>42649</v>
       </c>
       <c r="B39" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,7 +684,7 @@
         <v>42816</v>
       </c>
       <c r="B40" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -696,7 +692,7 @@
         <v>42841</v>
       </c>
       <c r="B41" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -704,7 +700,7 @@
         <v>42857</v>
       </c>
       <c r="B42" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -712,7 +708,7 @@
         <v>42928</v>
       </c>
       <c r="B43" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -720,7 +716,7 @@
         <v>42944</v>
       </c>
       <c r="B44" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +724,7 @@
         <v>42953</v>
       </c>
       <c r="B45" s="2">
-        <v>278</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -736,7 +732,7 @@
         <v>42985</v>
       </c>
       <c r="B46" s="2">
-        <v>276</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +740,7 @@
         <v>43017</v>
       </c>
       <c r="B47" s="2">
-        <v>274</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +748,7 @@
         <v>43049</v>
       </c>
       <c r="B48" s="2">
-        <v>275</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +756,7 @@
         <v>43129</v>
       </c>
       <c r="B49" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -768,7 +764,7 @@
         <v>43200</v>
       </c>
       <c r="B50" s="2">
-        <v>285</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -776,7 +772,7 @@
         <v>43248</v>
       </c>
       <c r="B51" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -784,7 +780,7 @@
         <v>43296</v>
       </c>
       <c r="B52" s="2">
-        <v>286</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +788,7 @@
         <v>43337</v>
       </c>
       <c r="B53" s="2">
-        <v>284.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +796,7 @@
         <v>43353</v>
       </c>
       <c r="B54" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +804,7 @@
         <v>43392</v>
       </c>
       <c r="B55" s="2">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +812,7 @@
         <v>43481</v>
       </c>
       <c r="B56" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +820,7 @@
         <v>43513</v>
       </c>
       <c r="B57" s="2">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +828,7 @@
         <v>43577</v>
       </c>
       <c r="B58" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +836,7 @@
         <v>43632</v>
       </c>
       <c r="B59" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,7 +844,7 @@
         <v>43657</v>
       </c>
       <c r="B60" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -856,7 +852,7 @@
         <v>43680</v>
       </c>
       <c r="B61" s="2">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +860,7 @@
         <v>43689</v>
       </c>
       <c r="B62" s="2">
-        <v>283.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +868,7 @@
         <v>43696</v>
       </c>
       <c r="B63" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +876,7 @@
         <v>43721</v>
       </c>
       <c r="B64" s="2">
-        <v>278</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +884,7 @@
         <v>43737</v>
       </c>
       <c r="B65" s="2">
-        <v>278</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,7 +892,7 @@
         <v>43760</v>
       </c>
       <c r="B66" s="2">
-        <v>277</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +900,7 @@
         <v>43840</v>
       </c>
       <c r="B67" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +908,7 @@
         <v>43865</v>
       </c>
       <c r="B68" s="2">
-        <v>284.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +916,7 @@
         <v>43952</v>
       </c>
       <c r="B69" s="2">
-        <v>285</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +924,7 @@
         <v>44009</v>
       </c>
       <c r="B70" s="2">
-        <v>284.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +932,7 @@
         <v>44032</v>
       </c>
       <c r="B71" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +940,7 @@
         <v>44041</v>
       </c>
       <c r="B72" s="2">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +948,7 @@
         <v>44064</v>
       </c>
       <c r="B73" s="2">
-        <v>282.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,7 +956,7 @@
         <v>44080</v>
       </c>
       <c r="B74" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,7 +964,7 @@
         <v>44105</v>
       </c>
       <c r="B75" s="2">
-        <v>280.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,7 +972,7 @@
         <v>44121</v>
       </c>
       <c r="B76" s="2">
-        <v>280.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,7 +980,7 @@
         <v>44160</v>
       </c>
       <c r="B77" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +988,7 @@
         <v>44201</v>
       </c>
       <c r="B78" s="2">
-        <v>282.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +996,7 @@
         <v>44224</v>
       </c>
       <c r="B79" s="2">
-        <v>284.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +1004,7 @@
         <v>44297</v>
       </c>
       <c r="B80" s="2">
-        <v>285</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1012,7 @@
         <v>44345</v>
       </c>
       <c r="B81" s="2">
-        <v>285</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1020,7 @@
         <v>44368</v>
       </c>
       <c r="B82" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1028,7 @@
         <v>44384</v>
       </c>
       <c r="B83" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +1036,7 @@
         <v>44409</v>
       </c>
       <c r="B84" s="2">
-        <v>283</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1044,7 @@
         <v>44416</v>
       </c>
       <c r="B85" s="2">
-        <v>282</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1052,7 @@
         <v>44425</v>
       </c>
       <c r="B86" s="2">
-        <v>281</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1060,7 @@
         <v>44432</v>
       </c>
       <c r="B87" s="2">
-        <v>280</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1068,7 @@
         <v>44441</v>
       </c>
       <c r="B88" s="2">
-        <v>279.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1076,7 @@
         <v>44473</v>
       </c>
       <c r="B89" s="2">
-        <v>278</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1084,7 @@
         <v>44521</v>
       </c>
       <c r="B90" s="2">
-        <v>280.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1092,7 @@
         <v>44545</v>
       </c>
       <c r="B91" s="2">
-        <v>277</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1100,7 @@
         <v>44553</v>
       </c>
       <c r="B92" s="2">
-        <v>276.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,7 +1108,7 @@
         <v>44561</v>
       </c>
       <c r="B93" s="2">
-        <v>285</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1120,7 +1116,7 @@
         <v>44577</v>
       </c>
       <c r="B94" s="2">
-        <v>285.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,7 +1124,7 @@
         <v>44592</v>
       </c>
       <c r="B95" s="2">
-        <v>284</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,12 +1132,15 @@
         <v>44617</v>
       </c>
       <c r="B96" s="2">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>44530</v>
+      </c>
+      <c r="B97" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
